--- a/data/VIDOMOST_DORUChEN_2 сем_ДВ_ДМ і ПТМ.xlsx
+++ b/data/VIDOMOST_DORUChEN_2 сем_ДВ_ДМ і ПТМ.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Аня\Навантаження по кафедрі\ДМ і ПТМ навантаження 19-20н.р\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26055" windowHeight="10590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -303,14 +298,26 @@
     <t>Надійність технічних систем</t>
   </si>
   <si>
-    <t>Носенко Михайло Володимирович</t>
+    <r>
+      <t xml:space="preserve">Носенко Михайло </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Володимирович</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +436,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,6 +511,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -524,47 +577,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -683,7 +697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -860,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -873,14 +887,14 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
@@ -900,35 +914,35 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -938,21 +952,21 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="8"/>
@@ -962,21 +976,21 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="8"/>
@@ -986,34 +1000,34 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="10"/>
@@ -1023,31 +1037,31 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1055,7 +1069,7 @@
       <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
       <c r="C14" s="5">
@@ -1081,1046 +1095,1046 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="19">
         <v>1</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="18">
         <v>28</v>
       </c>
-      <c r="F15" s="27">
-        <v>2</v>
-      </c>
-      <c r="G15" s="27" t="s">
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
-        <v>2</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="19">
+        <v>2</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="18">
         <v>12</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="18">
         <v>1</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="19">
         <v>3</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="18">
         <v>28</v>
       </c>
-      <c r="F17" s="27">
-        <v>2</v>
-      </c>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="19">
         <v>4</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="18">
         <v>12</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="18">
         <v>1</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="19">
         <v>5</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="18">
         <v>28</v>
       </c>
-      <c r="F19" s="27">
-        <v>2</v>
-      </c>
-      <c r="G19" s="27" t="s">
+      <c r="F19" s="18">
+        <v>2</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="19">
         <v>6</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="18">
         <v>20</v>
       </c>
-      <c r="F20" s="27">
-        <v>2</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="19">
         <v>7</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="18">
         <v>20</v>
       </c>
-      <c r="F21" s="27">
-        <v>2</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="19">
         <v>8</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="18">
         <v>10</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="18">
         <v>1</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="19">
         <v>9</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="18">
         <v>20</v>
       </c>
-      <c r="F23" s="27">
-        <v>2</v>
-      </c>
-      <c r="G23" s="27" t="s">
+      <c r="F23" s="18">
+        <v>2</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="19">
         <v>10</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="24">
         <v>20</v>
       </c>
-      <c r="F24" s="34">
-        <v>2</v>
-      </c>
-      <c r="G24" s="27" t="s">
+      <c r="F24" s="24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="19">
         <v>11</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="24">
         <v>20</v>
       </c>
-      <c r="F25" s="34">
-        <v>2</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="24">
+        <v>2</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="19">
         <v>12</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="18">
         <v>14</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="18">
         <v>1</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="19">
         <v>13</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="18">
         <v>14</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="18">
         <v>1</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="19">
         <v>14</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="18">
         <v>20</v>
       </c>
-      <c r="F28" s="27">
-        <v>2</v>
-      </c>
-      <c r="G28" s="27" t="s">
+      <c r="F28" s="18">
+        <v>2</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="18">
         <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="19">
         <v>15</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="18">
         <v>20</v>
       </c>
-      <c r="F29" s="27">
-        <v>2</v>
-      </c>
-      <c r="G29" s="27" t="s">
+      <c r="F29" s="18">
+        <v>2</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="18">
         <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="19">
         <v>16</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="18">
         <v>30</v>
       </c>
-      <c r="F30" s="27">
-        <v>2</v>
-      </c>
-      <c r="G30" s="27" t="s">
+      <c r="F30" s="18">
+        <v>2</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="19">
         <v>17</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="18">
         <v>30</v>
       </c>
-      <c r="F31" s="27">
-        <v>2</v>
-      </c>
-      <c r="G31" s="27" t="s">
+      <c r="F31" s="18">
+        <v>2</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="19">
         <v>18</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="18">
         <v>20</v>
       </c>
-      <c r="F32" s="27">
-        <v>2</v>
-      </c>
-      <c r="G32" s="27" t="s">
+      <c r="F32" s="18">
+        <v>2</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="19">
         <v>19</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="18">
         <v>20</v>
       </c>
-      <c r="F33" s="27">
-        <v>2</v>
-      </c>
-      <c r="G33" s="27" t="s">
+      <c r="F33" s="18">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="19">
         <v>20</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="18">
         <v>28</v>
       </c>
-      <c r="F34" s="27">
-        <v>2</v>
-      </c>
-      <c r="G34" s="27" t="s">
+      <c r="F34" s="18">
+        <v>2</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="19">
         <v>21</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="18">
         <v>14</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="18">
         <v>1</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="19">
         <v>22</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="18">
         <v>28</v>
       </c>
-      <c r="F36" s="27">
-        <v>2</v>
-      </c>
-      <c r="G36" s="27" t="s">
+      <c r="F36" s="18">
+        <v>2</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="19">
         <v>23</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="18">
         <v>12</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="18">
         <v>1</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="19">
         <v>24</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="18">
         <v>12</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="18">
         <v>1</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="19">
         <v>25</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="18">
         <v>28</v>
       </c>
-      <c r="F39" s="27">
-        <v>2</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="F39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="A40" s="19">
         <v>26</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="18">
         <v>12</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="18">
         <v>1</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="19">
         <v>27</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="18">
         <v>12</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="18">
         <v>1</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="24">
         <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+      <c r="A42" s="19">
         <v>28</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="18">
         <v>28</v>
       </c>
-      <c r="F42" s="27">
-        <v>2</v>
-      </c>
-      <c r="G42" s="27" t="s">
+      <c r="F42" s="18">
+        <v>2</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="19">
         <v>29</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="18">
         <v>12</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="18">
         <v>1</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="19">
         <v>30</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="18">
         <v>12</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="18">
         <v>1</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="19">
         <v>31</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="18">
         <v>30</v>
       </c>
-      <c r="F45" s="27">
-        <v>2</v>
-      </c>
-      <c r="G45" s="27" t="s">
+      <c r="F45" s="18">
+        <v>2</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="18">
         <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+      <c r="A46" s="19">
         <v>32</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="18">
         <v>30</v>
       </c>
-      <c r="F46" s="27">
-        <v>2</v>
-      </c>
-      <c r="G46" s="27" t="s">
+      <c r="F46" s="18">
+        <v>2</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="18">
         <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="A47" s="19">
         <v>33</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="18">
         <v>12</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="18">
         <v>1</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
+      <c r="A48" s="19">
         <v>34</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="18">
         <v>12</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="18">
         <v>1</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+      <c r="A49" s="19">
         <v>35</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="18">
         <v>30</v>
       </c>
-      <c r="F49" s="27">
-        <v>2</v>
-      </c>
-      <c r="G49" s="27" t="s">
+      <c r="F49" s="18">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="18">
         <v>545</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="A50" s="19">
         <v>36</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="18">
         <v>14</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="18">
         <v>1</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="18">
         <v>545</v>
       </c>
     </row>
@@ -2128,30 +2142,30 @@
       <c r="A53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="H53" s="19" t="s">
+      <c r="B53" s="17"/>
+      <c r="H53" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="19"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="20" t="s">
+      <c r="H54" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="33"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2173,6 +2187,6 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="2" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/VIDOMOST_DORUChEN_2 сем_ДВ_ДМ і ПТМ.xlsx
+++ b/data/VIDOMOST_DORUChEN_2 сем_ДВ_ДМ і ПТМ.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$K$56</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="63">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Аналіз умов експлуатації деталей машин та інструменту</t>
   </si>
   <si>
-    <t>Іф-217, Іф-218сп,              Іф-228сп, Іф-617</t>
-  </si>
-  <si>
     <t>Надійність технічних систем</t>
   </si>
   <si>
@@ -311,6 +308,94 @@
       </rPr>
       <t>Володимирович</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>І</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ф</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-217, І</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ф</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-218сп,              І</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ф</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-228сп, І</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ф</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-617</t>
+    </r>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -444,12 +529,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -480,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,6 +640,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -885,10 +994,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,48 +1008,50 @@
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="27.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="12"/>
       <c r="C5" s="2"/>
@@ -950,21 +1061,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
@@ -973,22 +1086,24 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="13"/>
       <c r="C9" s="3"/>
@@ -997,35 +1112,38 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
@@ -1034,9 +1152,10 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="26"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -1062,10 +1181,13 @@
         <v>22</v>
       </c>
       <c r="I13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -1093,8 +1215,11 @@
       <c r="I14" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J14" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>1</v>
       </c>
@@ -1122,8 +1247,9 @@
       <c r="I15" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>2</v>
       </c>
@@ -1151,8 +1277,9 @@
       <c r="I16" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>3</v>
       </c>
@@ -1180,8 +1307,9 @@
       <c r="I17" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>4</v>
       </c>
@@ -1209,8 +1337,9 @@
       <c r="I18" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>5</v>
       </c>
@@ -1238,8 +1367,9 @@
       <c r="I19" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>6</v>
       </c>
@@ -1267,8 +1397,9 @@
       <c r="I20" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>7</v>
       </c>
@@ -1296,8 +1427,9 @@
       <c r="I21" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>8</v>
       </c>
@@ -1325,8 +1457,9 @@
       <c r="I22" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>9</v>
       </c>
@@ -1354,8 +1487,9 @@
       <c r="I23" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>10</v>
       </c>
@@ -1383,8 +1517,9 @@
       <c r="I24" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>11</v>
       </c>
@@ -1412,8 +1547,9 @@
       <c r="I25" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>12</v>
       </c>
@@ -1441,8 +1577,9 @@
       <c r="I26" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>13</v>
       </c>
@@ -1470,8 +1607,9 @@
       <c r="I27" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>14</v>
       </c>
@@ -1499,8 +1637,9 @@
       <c r="I28" s="18">
         <v>545</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>15</v>
       </c>
@@ -1528,8 +1667,9 @@
       <c r="I29" s="18">
         <v>545</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>16</v>
       </c>
@@ -1557,8 +1697,9 @@
       <c r="I30" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>17</v>
       </c>
@@ -1586,8 +1727,9 @@
       <c r="I31" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J31" s="28"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>18</v>
       </c>
@@ -1615,8 +1757,9 @@
       <c r="I32" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>19</v>
       </c>
@@ -1644,8 +1787,9 @@
       <c r="I33" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>20</v>
       </c>
@@ -1673,8 +1817,9 @@
       <c r="I34" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>21</v>
       </c>
@@ -1702,8 +1847,9 @@
       <c r="I35" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>22</v>
       </c>
@@ -1731,8 +1877,9 @@
       <c r="I36" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>23</v>
       </c>
@@ -1760,8 +1907,9 @@
       <c r="I37" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>24</v>
       </c>
@@ -1789,8 +1937,9 @@
       <c r="I38" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>25</v>
       </c>
@@ -1818,8 +1967,9 @@
       <c r="I39" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>26</v>
       </c>
@@ -1847,8 +1997,9 @@
       <c r="I40" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>27</v>
       </c>
@@ -1876,8 +2027,9 @@
       <c r="I41" s="24">
         <v>545</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>28</v>
       </c>
@@ -1905,8 +2057,9 @@
       <c r="I42" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>29</v>
       </c>
@@ -1934,8 +2087,9 @@
       <c r="I43" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>30</v>
       </c>
@@ -1963,8 +2117,9 @@
       <c r="I44" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>31</v>
       </c>
@@ -1992,8 +2147,9 @@
       <c r="I45" s="18">
         <v>545</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>32</v>
       </c>
@@ -2021,8 +2177,9 @@
       <c r="I46" s="18">
         <v>545</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>33</v>
       </c>
@@ -2030,7 +2187,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>42</v>
@@ -2050,8 +2207,9 @@
       <c r="I47" s="18">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>34</v>
       </c>
@@ -2059,7 +2217,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>39</v>
@@ -2079,13 +2237,14 @@
       <c r="I48" s="18">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>35</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>45</v>
@@ -2103,18 +2262,19 @@
         <v>23</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" s="18">
         <v>545</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>36</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>45</v>
@@ -2132,52 +2292,56 @@
         <v>23</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50" s="18">
         <v>545</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J50" s="27"/>
+    </row>
+    <row r="53" spans="1:10" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="17"/>
-      <c r="H53" s="32" t="s">
+      <c r="H53" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="32"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="33" t="s">
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+    </row>
+    <row r="54" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I54" s="33"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="C28:C29">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>
@@ -2187,6 +2351,6 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="2" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>